--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/24_Çorum_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/24_Çorum_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0922C95F-3659-4097-ADDE-1E667B10AFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D52EBFB1-70A7-43AB-989B-91D42F62A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="656" xr2:uid="{0D3614DB-CB91-4674-AD04-8BBE5DFB413D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{58D47042-1C46-4998-8DF4-F2087E286967}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -984,13 +984,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0DA00A84-5C95-4A56-B754-4709927DF208}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4E08F876-D16E-48EF-9C44-BB87442BD866}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{76F0D6FC-D371-406B-A703-589F51E25029}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{855BBC00-2A9B-4483-8CC9-8DC71FF35740}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C70F412A-0FFE-47A9-8669-7030A3BAF1FA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{83229A3E-AC5F-4AA3-9F47-A10B97BB95B7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B8637FCD-3491-4DE8-A0C6-1DAFEB821C99}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9DC1CDE8-3740-4992-9BF9-7F988A4CB4CC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9B1CD556-F1E3-469B-AE04-3E6B819376EC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5D01F94E-1A18-4D27-AEA2-4610382D4FC5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{27D55415-2F7F-4EAD-8CB8-25FDF81BF1E5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AC35762A-AFEC-4D51-AEC7-DBB801F07128}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{B52C9F27-556F-495D-BDE9-84C0D7EDDCE6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{242A6B1A-2D22-4C62-981A-749FE5C6A354}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD807C2A-0689-42B2-A68F-071FF77992DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB2B76F-0D12-4C03-8064-74DFF8DDA713}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2632,17 +2632,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{279ECA72-C5CF-454E-A3B9-A0514965F66C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78CE68DC-4260-4964-BED9-1C91F504034C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6EB766C-3AA1-4418-B6CA-15C78439E6FF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D5FDD410-6A40-492C-83F0-6BA8F405EC67}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45191651-B276-4B76-9F46-55D24709E281}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0DF5CCE-D2FA-4ADB-89BE-E4FE671638B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02E98566-03D4-4305-B6D5-0EC61D2D1C76}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA0BB23A-0181-45F8-8A81-48F5930D1492}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3CEDDE2D-AD34-4D45-932B-4F803B9EA5B1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7B1809E0-E6F0-4260-91F3-77872BB7AB52}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95B550AB-7CB6-47B7-B303-DED79481E875}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAEEE22A-471C-4588-86EF-86A72AFE86D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E194DB5-17D1-46CE-96E3-A50A16B98E36}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B16E16F4-BE0C-4105-99EA-1996478FBC89}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BE76643E-1AEC-42B9-B6EF-94F37714817D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D4E407F-45E8-4C4A-96B5-606E873F5FBC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9FAE2F1E-04BE-43C1-AED6-6666858B1441}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{577433A0-E2BE-47DA-8C7E-F0D7201FC6B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F69A56E-8CD7-4405-85C6-1D62002B53AB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FC37FC99-CE66-4B1F-BC3A-01A7BEBFAAB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{52E0FFAC-BABC-4AC3-85AF-3E789D94B182}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A861BE3D-1EF2-440D-95CB-C92218F3AEDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2655,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD19782-DDF8-4388-9ED9-E0DCA1ED97DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AE0BAB-D3CE-45B6-A02B-12D2C9269ABD}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3903,17 +3903,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12DEB032-0CB0-4BAC-9CCC-FD3371A1FC7D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9492DB34-637E-4E02-A655-73CDB0D2D9F4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B3D42F5-BA63-4E59-A2A9-EEDB97630EFE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C711DFE7-F662-40AB-9740-2AAD4E3A025B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C987CEF-E54C-418D-B0A5-380797A2B2CB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CDEDDFC-4F4E-4DDF-B572-A741E2D10EA9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8246AA79-68CA-47D1-8B37-6BF6495A5591}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04DADA39-77C4-4D6A-87BA-0BDF30BA71E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E29D48A2-6A52-436B-BC70-FE2CE306D6CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{10B22F5E-60F9-4BDF-B497-89D9DDE331BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{614A8922-4A46-4B61-855A-7170F0B67965}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{429E4E51-CB9C-441D-9353-EFC4C7BCE9D7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D458CEAA-FC7C-4941-9446-37E219D158FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{005C8102-7E06-40B6-B709-48AAECD339D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6551F55-3705-4B92-9A5E-48BD211392FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAC6416C-FD52-4C0F-BFF8-CECB62F4D447}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74D9C202-C848-4F98-84EF-3C4B46FF93BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71B52EE5-EB63-400F-A443-464876E4C56E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F7CF372-7D5E-4CB8-AE45-C141CB069601}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B3FDA06E-77B8-4550-95FD-FCAA42EB5F4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C1E1231B-CE7C-429F-8C71-335C2E2A08F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A6D141D-F04F-42B0-9E8F-1A8DD8AC14C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3926,7 +3926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B9B0B6-5751-45B0-919F-CF75AE70495D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C7D9DE-F62F-49D7-8CDD-1BE1FBDF1FFE}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5162,17 +5162,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{641C82A8-B11F-4A60-A0DD-1C3065597A3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07968A3C-CCFC-4E9F-8A69-DF298D286972}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E2DBFD01-526A-457A-840C-E734402A48BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72C47998-3DC5-4C2F-AD03-A4EAA07A1462}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87C431E5-5935-4BEC-9E53-93F10E95C6A7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{069DC850-4633-4DA8-978B-631DC0365D81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D965ACEB-78B0-42D3-AF91-BEE20E99678C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0ACF1C4-9C37-4573-8CBF-07FED0CC6C60}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{54047ADB-4413-4CF8-AD73-FB189DDC8682}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DE85A2CB-E607-4419-9B76-43CF1983720C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74975377-3101-46C2-B52D-C65D37099D16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6701736E-0B68-4CFC-A92D-82C830B37C83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56D5AEB3-B2A4-4629-964E-8803D393901C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE78CD77-9D73-4D39-930B-DD532E9DA467}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C658715F-E91A-4FBC-9415-761BA8142612}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4158F6F1-EAA6-4079-B6EA-81E3B9DDE37D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BEB8F06-01BA-4C19-9413-055E1AB6E4A1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{763E7E19-261C-4BBE-810B-D6A8EF4DF3C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E144490C-4D8C-4558-B243-480F7AF88D49}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A4A1235D-F450-4C8E-91C6-D512168968AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AAF50A52-8449-4B45-B579-5273B8F8BBA3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E2A9F28-8096-4330-B71C-ACCE20E3E1A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5185,7 +5185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66931F6-8341-44ED-84C2-B9CEC5570B5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B516E13-6713-40CB-8CE8-8AFFE9FCC1AB}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6421,17 +6421,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CCCD9E44-C8CE-4F72-98D4-61DA80BB3BA4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{921B7942-E482-4FBF-AEC3-10F937E39202}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D58D04D4-34F2-4323-B2B3-66C3B40A177A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{087B0B72-3F04-4540-B5D5-EAB0F8109D38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8CDA5D1F-F149-4BDE-8EB4-22C6E160643D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E555FC94-CC6E-44F6-8A40-3CDBC83A1B61}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B2096947-E36B-4FDD-B81A-AEB10DFD3703}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91C896F2-E484-4276-A1A1-B1D5A8FC3179}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1F7F1AE9-0392-4EF7-931D-7A7E13BEBFA2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23E1C34C-4F60-496F-8CDD-558B41BC3DE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18A92C1C-23B6-4E76-84D8-F70403F5D18C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3818A57A-57F4-4CB1-B924-E9CCA38AD38A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86F6FACC-4588-4E68-A5A3-9294920EE983}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BEAE1625-42A2-4F07-925A-B33E76ABDF5C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC5285FA-1547-40AB-9401-1392310D95C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{79F9DDCE-C068-4320-9DE4-D3A67915EE8B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{554F95E7-47D2-45C1-8D3D-13883617B389}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17376731-E7AB-4EC5-99B5-BDA7779BD0C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF42FB1A-3926-4EC1-99AB-D8F042D7083E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DE588B89-A2B5-4293-AFA2-C4249C430D2D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{108A539D-FB16-49AF-99D7-78932665186C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7381A632-6E51-443C-BF74-680A822CA282}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6444,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE492622-F726-411F-AABB-A40A8B0AA927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD30EC-5812-46AE-A07E-708A4786A859}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7713,17 +7713,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C20DEEF2-A101-43B8-BAFF-A964C9E4026B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6605EFB8-C242-4ACB-A922-155BA758985D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E9E2B6B1-A5C5-4AA9-B170-CDED91A2591E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDDD98F2-F82F-42E3-B5EA-6180142530F0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F4FFC5B-9C9D-49EB-8C71-E4FE5B9C27A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CEA0BCD-4E12-4342-9095-CA141007AC5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCC04706-C136-4E5A-A328-33171442B760}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E3282C9-076E-45A1-9992-B3FFB09F801B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{41D0B4F2-0E44-407B-AA58-8C4A80C3DD69}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7707037C-8F75-4070-9990-734CC888C651}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E915A07-439E-468C-B8A8-521C758E628A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B542890-873F-4C2F-A65C-172328DA983C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{145EBC9A-DA56-4004-83ED-6348EEC51A48}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ACCE9E88-E0FB-4FB8-9EEB-C497092A1027}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{359D54AC-4538-4449-9CAD-04D88F094739}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F16E973-00D5-468B-B7B6-E482C0C9EB3D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C49644F0-1599-4500-B282-E29BC29539E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46E17C34-63A8-47FD-A84D-2CB7C7672C35}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35EB4FC4-0540-479B-AFFC-1D1C760AAB95}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{17679684-B24F-41B4-BCF0-2CD4B29D97FB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A965A22C-6C11-442C-8684-66C8090AFCB1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF895A08-A8B1-4BA9-BBC3-955346A3C923}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7736,7 +7736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B93EA6C-4C64-4E85-8B81-B4968FA6BECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F222E7D-6909-4FF7-8CBE-7FBA8C680CD7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9005,17 +9005,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B5B988A-A387-4C72-9034-D12B3D998784}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD9F22FA-13C4-480F-A1B8-3F74B4FF1A09}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2E62D5A-4CF7-4E12-9F47-2712A7E13522}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB827E0D-750E-419C-83A8-FCC3E973F576}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66797C8E-E8C5-4F11-AAF1-12FCBFA0CD3B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{33C025E0-B66F-425E-8495-ADC90BD5F499}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BE3C239-49F2-4674-A3BD-82F7AF85960E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FFCC12D-A12C-45E7-AE1A-C15E1D5348F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{047E9113-63CD-4A74-8EF4-08A03356B7FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3124847A-23A5-450B-8449-1EE5FF6F9804}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE1F7A8A-3E5A-408B-BA8A-968196535326}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A84ED24B-177C-4DEF-A4F5-E5600D1594E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{461D0F39-84A1-4212-A745-CB0BB5E3C51A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0667491-2B8E-4B4C-A4CA-544BF583E0A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{246CD55B-9975-439D-A586-442353CD9914}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{125AD549-9C73-4A82-9CA3-F9C04024822A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B59B40FF-8E98-4BEF-898C-40627D313621}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF7E8C62-3B38-422E-A893-F05BD5E98827}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07144AF9-DDA0-4830-B5D2-5CD1D00DF383}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{21BDE504-7220-4278-9B85-BEFE05B2575E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B217F236-755A-4B6D-A3D3-ABE18C6ABFCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4669BDBE-A8F4-4575-A580-0EFA4594D20E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9028,7 +9028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE0DBCD-154F-4E38-856F-385F80A63924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF55E4B-D901-46BD-A055-1E27F7259189}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10297,17 +10297,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37449632-A463-480B-B6C3-50435F6D0875}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27774591-C6D1-4BA3-BF69-A032645886CC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E302BE8-BC65-4D4E-8629-A6D017134FFA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38DC43F9-FC38-4C02-98FD-FAC8C1F133D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52897D0F-A5A3-467F-98DE-CED4939C2FA3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C837A90-BEA9-4622-A4E8-86DF910590EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3479FBE3-78BD-4406-B649-238BDB2470C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16F12E41-B21F-4A62-8B48-429CB7208E29}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{92E50ECC-7FF4-47BB-A5E7-59AFA1142316}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{78B4FF7F-D6D8-4C19-85CD-08EB94773BD9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{567D7B0C-8655-4ADA-A031-C0558FE23176}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E426A0D5-B632-4EF2-93FD-6FF0AF41AA1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDF8FF17-E007-40B5-A4A9-77A0AD0EBEB8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6837C65C-EE3E-44BF-ACCA-8E4519020AC9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7EEF9629-6880-4B57-B720-8F4E1B9D5AED}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{042CE432-9197-47FF-B1F5-F0EF936338CD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5810BD2-AAAB-420F-967A-2A2247F7A465}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7430B6A-6534-40F5-8DAC-F0DCDA244B2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BE68DC7-5147-412D-8D78-F0C337C822D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{38C73052-7B9E-4276-A352-A97C95C6403C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8232D130-01EA-4941-BA15-DD1D31216492}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF2EBA2C-9125-446E-8A7F-1467EF7A0C10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10320,7 +10320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6B0502-9464-40EF-91ED-36C7748E2979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A821CF-7053-4C15-8A63-8A383400E3F9}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11581,17 +11581,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5C0DB5A-F393-4242-AAF2-58CD3E074137}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA2901B2-6FFE-4EA9-9627-B408CCE4A9F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9ECC482-E1B6-4AAE-87EC-42DC30767740}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3644E389-A467-49CC-8B53-6239FF7E624F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9F417240-2641-45C2-BE66-5694F33ADA43}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9599E965-C052-483D-AB67-AA66C7190B71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{913C663B-64A7-49E8-ADDD-D8989835E756}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5D4E2579-7990-46F6-A66C-6B619EFC67E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BADA71C8-8CE9-478A-B376-862428C1881B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{851DB82D-DA1B-43A3-ACCE-7002728452E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48B75D4D-B1D8-4119-929C-17781472BCD8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6016031C-2350-4373-A5C4-7BCEA2C1B8C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{682B90C6-CEB2-4F06-855C-4453012711B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A0CAC6B-777A-4EE8-B55C-71E81E8D71AD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A84F3A3-4F52-4237-BAC0-9EB4F5AD383B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D302CDF6-6784-43FF-8BD7-829A514307CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3303A7F0-B356-48ED-80FE-1DC8A12A6480}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEEBC11C-8FF9-414C-BBC8-EB5781A67D4A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{703BF0C1-9303-4BB0-8A84-C75514CACF57}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{080F8ABB-DD42-4CF5-9503-0773E46E1BC6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{96F37DEF-D482-409E-8258-50235A0E051B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{446DA57B-2457-4956-BDFA-AF432E830E44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11604,7 +11604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A6D5E-2F31-41F8-98FE-54CA3681EDE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9516D9-F1AF-462C-8361-F9ED5EA9449C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12865,17 +12865,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F75A4E0-0509-4222-A7A9-858B09B1637A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EC971C3-7735-4FEE-8E9F-6298297C2270}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3ECDF316-9F96-424C-B826-32DDE6F7107A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{163B1BD2-DF57-46F2-A017-6162DD2C4E15}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90D5D438-1D7D-46B7-92FF-50A7CB9E3F1A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{813D29CE-1BF8-45A3-8FAB-C3241B8C0100}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDE4B192-59B9-4CE8-B0D3-419D87B4F2C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4A01022-04AA-4B75-A6AD-C95A1B2427E7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{31C158B4-27A0-41AC-B7F6-CD2AF0419818}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{25C72EB6-D1FA-4F06-ABBD-F50AC8141576}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E073AFD-2A5E-4992-902D-D4B3372217F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FCBC10BF-F39A-48D6-A374-DC7E03EA5025}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5C7FEBF-E815-48F6-B57A-34738EBD6C14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7B6596B9-FEE6-4E6C-AB06-E42E445C9A3C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5891F1F9-9E35-40DA-8750-8D67928894BF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E87BB94-F65D-42E0-8A23-EC7BDA6274EE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57201211-3C56-440D-819A-FA3CA8382075}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA5F58F1-4141-4637-BEDB-3BE359D6E43D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{582E466F-F335-41B1-955C-BB8FD933396C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{667203D0-10C4-4ECC-B6D3-58DA5C61F037}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{755AF055-097F-4B10-B5E3-60458A986AC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EF0D316-9AD5-46D9-BB69-BCFB45655E3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12888,7 +12888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115D5BEC-52DE-4397-B27D-1A08790AD9EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB04CB9-3362-4FBF-AEFD-98096253BF3A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14143,17 +14143,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39DED50C-4690-4EDC-90A0-10DA0686FBB5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18FEE2AA-88B4-4050-B613-0F56C7B5F603}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B1A9C982-7217-4473-9784-C665F7973718}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B862BC81-0E01-436C-92A0-EA200413E659}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EAC00398-D385-4231-A8A7-89BE03FC86C3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68AFC153-F87A-4DC7-ADEF-DD6A74E7C6FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2B52321-39B9-4D5F-BDF6-73133B128F43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13399239-3813-4165-8177-72E2135CCA6F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2B775D1E-56F6-4284-BBBB-8FFE5C1DDA4E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E45610C9-811F-4F70-A91A-0A324A8CFCF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0D0FDAC-E6AE-49D4-932B-766B6A054BE7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4708856-F210-463F-9DDB-D82BFEC08C7B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{685D52C5-5A00-401D-B19F-6D07FCCF12AC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AAF2C6B1-247E-495F-8998-DA4970E8F33F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{226B4EDE-1EE0-48AD-B041-3EA1BAC4B8DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B89F0825-BA6B-45EF-96AE-B152096382FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC71CF5A-F735-441A-8A09-3574EBEE6ABA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D277E638-06E5-4F2C-94FC-1CF5F7D5EF16}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC33B758-9880-4F19-89C3-5D3B7DE70BFB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{83B2E615-667B-4845-946B-43E24FF69728}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{138FDD23-84FB-4A8D-A7AC-F3C803F38125}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B1692DB-6909-485E-B908-79C6ACCA4D8C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14166,7 +14166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3CE19F-3CA5-432A-A2E0-D3DA2AC5F11D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E45BA-84FC-496F-8E97-50F666C374A7}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15422,17 +15422,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00EF983E-2C44-4A94-AEE2-5F4681611D19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5EA7872-447B-41D1-A36D-9C9B5073B163}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71059432-C957-403F-8949-E504E816DA23}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C0AF5053-AFE1-4B3E-8C05-9A0ED5C0B077}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12F769B9-9E30-4C29-9602-A898295E4841}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC3982E0-3135-46BA-8B54-D67BF23E0419}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{79D0C13A-89A7-400D-A8E6-E862243078B8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54A7D6C8-B769-480C-9126-74EE032A2DAB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5BEE7CEE-9A4A-4AF5-B6A0-C90E0D3F124A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E0633AE8-D68A-46E1-9FC4-57844C4A4F7C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D44DF9C2-B09E-453A-AF90-3E10913FB142}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{213B3F03-96CB-40AA-AE88-6E871111D2E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4F7C729-2879-46E9-BE65-49AF79D07DEE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0805A41-188B-41C2-8256-CB2B2C1D40AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{456BB7CA-3A6F-45C2-BF2A-E2AD63E28D76}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35F6678E-AA7C-4106-9D18-0B56F68D8639}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{74131995-53B4-46BE-A04E-CFBD03D2467A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{762BDB1F-FBD7-4E54-AD42-FE36ED55E4D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{833519BE-EC88-48B6-9224-D00B580AEA45}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{93883F9D-E1FA-4C2A-AB1B-580E0026D87A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BA5BE132-D366-4FFA-AAF3-14F728CB310F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{73136DAA-39FB-4198-88A6-4B0D6615A016}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15445,7 +15445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CC0F29-E82B-439E-A1A1-6128FE9EFD53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10334B7A-936F-4CC3-A83B-007E24C6EACF}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16697,17 +16697,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C948E67-2806-4CD6-9B98-A4CEC4B26EEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93D4496C-CF95-4C19-9AEA-218DAA265864}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2914256F-7C38-417A-827B-ACD2A645C27F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7267A21E-6D7C-44B8-AA54-45D3542D748D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05CB5878-1E69-4800-9BA7-64A135EB4E3D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B62DA8B9-84E6-4645-B296-6B5B843494B6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C5D9365-2EF7-4B60-951B-E3D148FCC72A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF44C66E-F3F2-4BE7-BFCD-FA4572EBCDAB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{711C9C3A-C7F8-47A6-8904-D1F0D652A718}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{06E15D48-E6B1-4F92-B997-C654579C3260}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3D0F976-FF26-4E3E-8F68-5BB1024718E2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A05E3196-0A92-4AE1-BA1E-480407DFA84C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A52414D-029D-4D78-A445-D3ECA4C35E14}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0745F6E-8689-408D-B6D5-092BA5FC78D6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C0529DE-01D9-4406-8CCE-38A35785367C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5FE56FE-007D-410C-B184-8853B0D616B4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4487C8DE-52FB-41BE-9ADF-71B9D983D416}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84B96A6A-9B25-431C-8671-02FD9377FDC6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F049347A-3883-48AB-8C74-451D3271CB8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{99CF95FD-DC4C-4792-962D-67457007336C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5EB1414C-FCB2-4138-982B-EFE10750CF92}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0989915E-CB50-43BE-A0B9-1F505D72A238}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
